--- a/Area de Proceso REQM/LMREQM/LMREQM_V0.1_2016.xlsx
+++ b/Area de Proceso REQM/LMREQM/LMREQM_V0.1_2016.xlsx
@@ -5322,8 +5322,8 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G8:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5986,7 +5986,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:C8"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6257,7 +6257,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B31" sqref="B31:E31"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
